--- a/_ConfigExcels/Datas/com_drop.xlsx
+++ b/_ConfigExcels/Datas/com_drop.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -83,27 +83,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>绿色箱子，随机两份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每一份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DROP,1,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM,1,50,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ITEM,1,100,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP,1,2,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +113,54 @@
       </rPr>
       <t>ROP</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,70,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,120,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶层掉落包配多少项，就会有多少道具，除非是概率掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落类型或说方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Drop.DropType</t>
+  </si>
+  <si>
+    <t>drop_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,101,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,102,1,5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-绿色箱子
+必出1份，概率2份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +296,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,8 +317,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,138 +599,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/com_drop.xlsx
+++ b/_ConfigExcels/Datas/com_drop.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t>(list#sep=;),Beans.Item_Draw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,50,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,100,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -116,14 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM,1,70,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,120,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>顶层掉落包配多少项，就会有多少道具，除非是概率掉落</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,24 +123,174 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EIGHT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机蓝武碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEM,1,1,100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,3,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机紫武碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机橙武碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_6</t>
+  </si>
+  <si>
+    <t>ITEM,4,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,5,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,6,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,7,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,9,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,8,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,10,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,11,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,12,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,1,5,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,10,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,20,1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机蓝+紫武碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WEIGHT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>drop_7</t>
+  </si>
+  <si>
+    <t>drop_8</t>
+  </si>
+  <si>
+    <t>drop_9</t>
+  </si>
+  <si>
+    <t>绿色箱子
+必出1份，随机获得5蓝碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,4,15,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色箱子
+必出1份，获得10金币，概率额外获得20金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色箱子
+必出1份，获得100金币，概率额外获得200金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,100,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,200,1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色箱子
+必出1份，随机获得15蓝+紫碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色箱子
+必出1份，随机获得40蓝+紫碎片/500金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WEIGHT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DROP,101,1,10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP,102,1,5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-绿色箱子
-必出1份，概率2份</t>
+    <t>ITEM,1,500,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,4,40,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,6 +429,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,12 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,10 +741,13 @@
     <col min="3" max="4" width="30.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,17 +755,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -640,17 +777,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +810,20 @@
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,87 +834,277 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>101</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="N10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>103</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="N11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>104</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="N12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>105</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="N13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="N14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="N15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/com_drop.xlsx
+++ b/_ConfigExcels/Datas/com_drop.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -144,31 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TEM,1,1,100</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,3,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机紫武碎片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,42 +153,6 @@
   </si>
   <si>
     <t>drop_6</t>
-  </si>
-  <si>
-    <t>ITEM,4,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,5,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,6,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,7,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,9,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,8,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,10,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,11,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,12,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DROP,1,5,10000</t>
@@ -291,6 +230,66 @@
   </si>
   <si>
     <t>DROP,4,40,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,2003,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2004,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2005,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2006,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2007,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2008,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2009,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2010,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2011,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2012,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,1,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,1,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,2003,500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,8 +740,10 @@
     <col min="3" max="4" width="30.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -811,16 +812,16 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -859,13 +860,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -876,28 +877,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -905,19 +906,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -928,37 +929,37 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -966,13 +967,13 @@
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
@@ -988,16 +989,16 @@
         <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1012,13 +1013,13 @@
         <v>103</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -1034,16 +1035,16 @@
         <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1058,16 +1059,16 @@
         <v>105</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>

--- a/_ConfigExcels/Datas/com_drop.xlsx
+++ b/_ConfigExcels/Datas/com_drop.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM,1,2003,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM,2004,1,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,7 +285,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM,1,2003,500</t>
+    <t>ITEM,2003,1,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +727,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,7 +862,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -883,22 +879,22 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -912,13 +908,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -935,31 +931,31 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/com_drop.xlsx
+++ b/_ConfigExcels/Datas/com_drop.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -155,10 +155,6 @@
     <t>drop_6</t>
   </si>
   <si>
-    <t>DROP,1,5,10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM,1,10,10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,108 +180,238 @@
     <t>drop_9</t>
   </si>
   <si>
+    <t>ITEM,1,100,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,200,1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2004,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2005,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2006,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2007,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2008,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2009,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2010,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2011,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2012,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,1,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,1,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2003,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2003,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2003,15,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,15,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,15,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,5,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>绿色箱子
-必出1份，随机获得5蓝碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP,4,15,10000</t>
+必定获得5蓝碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2004,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2005,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2006,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2007,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2008,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2009,5,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,6,1,1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蓝色箱子
-必出1份，获得10金币，概率额外获得20金币</t>
+必得10金币
+10%概率额外获得20金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色箱子
+必定获得15蓝
+10%概率额外获得5紫碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EIGHT</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>橙色箱子
-必出1份，获得100金币，概率额外获得200金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,100,10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,200,1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色箱子
-必出1份，随机获得15蓝+紫碎片</t>
+必得100金币
+10%概率额外获得200金币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>红色箱子
-必出1份，随机获得40蓝+紫碎片/500金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,1,500,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP,4,40,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2001,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2002,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2004,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2005,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2006,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2007,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2008,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2009,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2010,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2011,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2012,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2001,1,500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2002,1,500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM,2003,1,100</t>
+必得40蓝
+20%概率额外获得20紫碎片
+10%概率额外获得500金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2001,40,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2002,40,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2003,40,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,7,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2004,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2005,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2006,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2007,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2008,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,2009,20,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,8,1,2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM,1,500,1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -856,13 +982,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -879,22 +1005,22 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -908,13 +1034,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -925,148 +1051,174 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>101</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="N9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="N10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="N11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="N12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1074,28 +1226,126 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="N14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>103</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="N15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>104</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="N16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>105</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="N17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="N18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="N15" s="6" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="E16" s="3"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
